--- a/assets/candidatures.xlsx
+++ b/assets/candidatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive\Bureau\auto-relance\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94A5D2A-2842-478C-9869-5F0AA99D58DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE30288-863E-4488-98FD-EF1BF131F354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -806,7 +806,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -950,6 +950,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1091,10 +1099,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1240,8 +1249,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1547,8 +1560,8 @@
   </sheetPr>
   <dimension ref="A1:T136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F79" workbookViewId="0">
-      <selection activeCell="L88" sqref="L88"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4559,6 +4572,7 @@
       </c>
       <c r="G88" s="21"/>
       <c r="H88" s="6"/>
+      <c r="I88" s="53"/>
       <c r="J88" s="26" t="s">
         <v>218</v>
       </c>

--- a/assets/candidatures.xlsx
+++ b/assets/candidatures.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Music\Relance_automatique\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28CDD73-6FF2-4F34-926E-C266981D025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Feuil1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Nom de l'entreprise</t>
   </si>
@@ -58,15 +64,17 @@
     <t>&lt;-- Exemple</t>
   </si>
   <si>
-    <t/>
+    <t>alexandre0312@orange.fr</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,7 +92,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00b050"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -94,6 +102,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,80 +198,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -266,10 +273,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -307,71 +314,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,7 +406,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -422,11 +429,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -435,13 +442,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -451,7 +458,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -460,7 +467,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -469,7 +476,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -477,10 +484,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -545,27 +552,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="18" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="28.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="17.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="24.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="18" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="20" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="2" width="28.5546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +597,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -615,63 +623,66 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7">
+        <v>44742</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>14</v>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="14"/>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="14"/>
+    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="14"/>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{4FE8AFC1-4699-490E-9466-9956D756AB71}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/candidatures.xlsx
+++ b/assets/candidatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Music\Relance_automatique\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28CDD73-6FF2-4F34-926E-C266981D025C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D958B13F-BE9D-42B1-B7D4-796BA6A289BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Nom de l'entreprise</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>alexandre0312@orange.fr</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -628,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7">
         <v>44742</v>
@@ -645,9 +642,7 @@
       <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>

--- a/assets/candidatures.xlsx
+++ b/assets/candidatures.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\Music\Relance_automatique\assets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D958B13F-BE9D-42B1-B7D4-796BA6A289BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Feuil1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -64,13 +58,14 @@
     <t>&lt;-- Exemple</t>
   </si>
   <si>
-    <t>alexandre0312@orange.fr</t>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,7 +84,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FF00b050"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -101,12 +96,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,71 +188,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -270,10 +275,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -311,71 +316,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -403,7 +408,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -426,11 +431,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -439,13 +444,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -455,7 +460,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -464,7 +469,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -473,7 +478,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -481,10 +486,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -549,28 +554,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.5546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="19" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="28.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="24.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="19" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="19" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="21" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="19" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +598,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -620,64 +624,59 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="7">
-        <v>44742</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="18" t="s">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>12</v>
+      <c r="B3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="11"/>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11"/>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="11"/>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="15"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{4FE8AFC1-4699-490E-9466-9956D756AB71}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>